--- a/2_Formulas_Functions/2_Functions_Intro/2_Functions_Intro.xlsx
+++ b/2_Formulas_Functions/2_Functions_Intro/2_Functions_Intro.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\2_Functions_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5205F9-DCBB-4B0E-A2E4-7F5B9BA51B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C0353-A8F0-416A-BF80-5B7ABDD2DC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="0" windowWidth="18053" windowHeight="9577" activeTab="1" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-102" yWindow="1596" windowWidth="18336" windowHeight="10266" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
-    <sheet name="Original (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Final" sheetId="7" r:id="rId2"/>
+    <sheet name="Errors" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -120,7 +143,73 @@
     <t>Meets Both (1 or 0)</t>
   </si>
   <si>
-    <t>Meets Both (AND)</t>
+    <t>Meets Both - AND()</t>
+  </si>
+  <si>
+    <t>Average (by Cell)</t>
+  </si>
+  <si>
+    <t>Average (AVERAGE())</t>
+  </si>
+  <si>
+    <t>Meets Both - Formula Only</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
+    <t>Meets Goals Count</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The formula is trying to divide by zero</t>
+  </si>
+  <si>
+    <t>The formula includes an argument of the wrong type</t>
+  </si>
+  <si>
+    <t>The formula uses a name that Excel doesn’t recognize</t>
+  </si>
+  <si>
+    <t>The formula is referring to a cell whose data isn’t available</t>
+  </si>
+  <si>
+    <t>There is a problem with the value in the formula</t>
+  </si>
+  <si>
+    <t>The formula is trying to use an intersection of two ranges that don’t intersect</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>=1/0</t>
+  </si>
+  <si>
+    <t>=B4 + "text"</t>
+  </si>
+  <si>
+    <t>=#REF!</t>
+  </si>
+  <si>
+    <t>=SQRT(-1)</t>
+  </si>
+  <si>
+    <t>=SUM(A1:A10 B1:B10)</t>
+  </si>
+  <si>
+    <t>=VLOOKUP("Value", A1:A10, 2, FALSE)</t>
+  </si>
+  <si>
+    <t>=COUNTT(A3:A9)</t>
+  </si>
+  <si>
+    <t>The formula refers to a cell that isn’t valid (usually deleted cell)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +228,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -167,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -324,54 +427,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,12 +986,37 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="875" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{810CD6FF-D395-4E5D-8BBF-894CC867CF0B}">
+  <we:reference id="wa200006518" version="1.0.3.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200006518" version="1.0.3.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{0858819E-0033-43BF-8937-05EC82904868}">
+      <we:backgroundApp state="0" runtimeId="Anaconda.SharedRuntime.Url"/>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43874593-2EEC-48E4-98E0-7C4B9DC6F43F}">
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -732,7 +1038,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:15" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -748,35 +1054,35 @@
       <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,44 +1099,44 @@
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <f>D3+E3</f>
         <v>130000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="27">
         <f>E3/D3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="28">
         <f>D3+D3*H3</f>
         <v>130000</v>
       </c>
-      <c r="J3" s="1" t="b">
+      <c r="J3" s="26" t="b">
         <f>G3=I3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="b">
+      <c r="K3" s="26" t="b">
         <f>E3&gt;D3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="b">
+      <c r="L3" s="26" t="b">
         <f>$C$15&lt;=C3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="b">
+      <c r="M3" s="26" t="b">
         <f>$G3&gt;=$C$16</f>
         <v>1</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="26">
         <f>L3*M3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="b">
+      <c r="O3" s="26" t="b">
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -847,44 +1153,44 @@
         <f t="shared" ref="F4:F12" si="0">C4</f>
         <v>4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="26">
         <f t="shared" ref="G4:G12" si="1">D4+E4</f>
         <v>147000</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="27">
         <f t="shared" ref="H4:H12" si="2">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="28">
         <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
         <v>147000</v>
       </c>
-      <c r="J4" s="1" t="b">
+      <c r="J4" s="26" t="b">
         <f t="shared" ref="J4:J12" si="4">G4=I4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="b">
+      <c r="K4" s="26" t="b">
         <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="b">
+      <c r="L4" s="26" t="b">
         <f t="shared" ref="L4:L12" si="6">$C$15&lt;=C4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="b">
+      <c r="M4" s="26" t="b">
         <f t="shared" ref="M4:M12" si="7">$G4&gt;=$C$16</f>
         <v>1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="26">
         <f t="shared" ref="N4:N12" si="8">L4*M4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="1" t="b">
+      <c r="O4" s="26" t="b">
         <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -901,44 +1207,44 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="26">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="27">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="28">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="J5" s="1" t="b">
+      <c r="J5" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="b">
+      <c r="K5" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="b">
+      <c r="L5" s="26" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="b">
+      <c r="M5" s="26" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O5" s="1" t="b">
+      <c r="O5" s="26" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -955,44 +1261,44 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
         <v>118000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="27">
         <f t="shared" si="2"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="28">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
-      <c r="J6" s="1" t="b">
+      <c r="J6" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="b">
+      <c r="K6" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="b">
+      <c r="L6" s="26" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="b">
+      <c r="M6" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="26">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="b">
+      <c r="O6" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1009,44 +1315,44 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
         <v>136000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="27">
         <f t="shared" si="2"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="28">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
-      <c r="J7" s="1" t="b">
+      <c r="J7" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="b">
+      <c r="K7" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="b">
+      <c r="L7" s="26" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="b">
+      <c r="M7" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O7" s="1" t="b">
+      <c r="O7" s="26" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1063,44 +1369,44 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="26">
         <f t="shared" si="1"/>
         <v>97000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="27">
         <f t="shared" si="2"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="28">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="J8" s="1" t="b">
+      <c r="J8" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="b">
+      <c r="K8" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="b">
+      <c r="L8" s="26" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="b">
+      <c r="M8" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="26">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O8" s="1" t="b">
+      <c r="O8" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1117,44 +1423,44 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="26">
         <f t="shared" si="1"/>
         <v>165000</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="27">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="28">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="J9" s="1" t="b">
+      <c r="J9" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="b">
+      <c r="K9" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="1" t="b">
+      <c r="L9" s="26" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M9" s="1" t="b">
+      <c r="M9" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="26">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="b">
+      <c r="O9" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1171,44 +1477,44 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="26">
         <f t="shared" si="1"/>
         <v>143000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="27">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="28">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
-      <c r="J10" s="1" t="b">
+      <c r="J10" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="b">
+      <c r="K10" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="1" t="b">
+      <c r="L10" s="26" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M10" s="1" t="b">
+      <c r="M10" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="26">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="b">
+      <c r="O10" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1225,39 +1531,39 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="26">
         <f t="shared" si="1"/>
         <v>154000</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="27">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="28">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
-      <c r="J11" s="1" t="b">
+      <c r="J11" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K11" s="1" t="b">
+      <c r="K11" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="1" t="b">
+      <c r="L11" s="26" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="b">
+      <c r="M11" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O11" s="1" t="b">
+      <c r="O11" s="26" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -1279,61 +1585,61 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
         <v>124000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="27">
         <f t="shared" si="2"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="28">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
-      <c r="J12" s="1" t="b">
+      <c r="J12" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K12" s="1" t="b">
+      <c r="K12" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="1" t="b">
+      <c r="L12" s="26" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="b">
+      <c r="M12" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="26">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O12" s="1" t="b">
+      <c r="O12" s="26" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>90000</v>
       </c>
     </row>
@@ -1343,11 +1649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22983F97-3F32-4797-AD1F-26BF1E2E6554}">
-  <dimension ref="B1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
+  <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="E14:G15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1358,19 +1664,23 @@
     <col min="4" max="4" width="12.265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.53125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="9.06640625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11.06640625" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.06640625" style="1"/>
+    <col min="12" max="12" width="10.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.06640625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="1"/>
-    <col min="16" max="16" width="11.19921875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.06640625" style="1"/>
+    <col min="15" max="15" width="14.1328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.86328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.06640625" style="1"/>
+    <col min="18" max="18" width="14.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="1" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G1" s="32"/>
+    </row>
     <row r="2" spans="2:19" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -1384,45 +1694,45 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1435,54 +1745,54 @@
       <c r="E3" s="7">
         <v>10000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="30">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <f>D3+E3</f>
         <v>130000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="27">
         <f>E3/D3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="28">
         <f>D3+D3*H3</f>
         <v>130000</v>
       </c>
-      <c r="J3" s="1" t="b">
+      <c r="J3" s="26" t="b">
         <f>G3=I3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="b">
+      <c r="K3" s="26" t="b">
         <f>E3&gt;D3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="b">
+      <c r="L3" s="26" t="b">
         <f>$S$3&lt;=C3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="b">
+      <c r="M3" s="26" t="b">
         <f>$G3&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="26">
         <f>L3*M3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="b">
+      <c r="O3" s="26" t="b">
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
-      <c r="P3" s="1" t="b">
-        <f>AND(L3:M3)</f>
-        <v>1</v>
-      </c>
-      <c r="R3" s="15" t="s">
+      <c r="P3" s="26" t="b">
+        <f>AND(L3,M3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="15">
         <v>5</v>
       </c>
     </row>
@@ -1499,58 +1809,58 @@
       <c r="E4" s="7">
         <v>12000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="30">
         <f t="shared" ref="F4:F12" si="0">C4</f>
         <v>4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="26">
         <f t="shared" ref="G4:G12" si="1">D4+E4</f>
         <v>147000</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="27">
         <f t="shared" ref="H4:H12" si="2">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="28">
         <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
         <v>147000</v>
       </c>
-      <c r="J4" s="1" t="b">
+      <c r="J4" s="26" t="b">
         <f t="shared" ref="J4:J12" si="4">G4=I4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="b">
+      <c r="K4" s="26" t="b">
         <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="b">
+      <c r="L4" s="26" t="b">
         <f>$S$3&lt;=C4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="b">
+      <c r="M4" s="26" t="b">
         <f>$G4&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="26">
         <f t="shared" ref="N4:N12" si="6">L4*M4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="1" t="b">
+      <c r="O4" s="26" t="b">
         <f t="shared" ref="O4:O12" si="7">L4*M4=1</f>
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="b">
-        <f t="shared" ref="P4:P12" si="8">AND(L4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="17" t="s">
+      <c r="P4" s="26" t="b">
+        <f t="shared" ref="P4:P12" si="8">AND(L4,M4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1563,52 +1873,52 @@
       <c r="E5" s="7">
         <v>5000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="26">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="27">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="28">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="J5" s="1" t="b">
+      <c r="J5" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="b">
+      <c r="K5" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="b">
+      <c r="L5" s="26" t="b">
         <f>$S$3&lt;=C5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="b">
+      <c r="M5" s="26" t="b">
         <f>$G5&gt;=$S$4</f>
         <v>0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O5" s="1" t="b">
+      <c r="O5" s="26" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="b">
+      <c r="P5" s="26" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1621,52 +1931,52 @@
       <c r="E6" s="7">
         <v>8000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
         <v>118000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="27">
         <f t="shared" si="2"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="28">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
-      <c r="J6" s="1" t="b">
+      <c r="J6" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="b">
+      <c r="K6" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L6" s="1" t="b">
+      <c r="L6" s="26" t="b">
         <f>$S$3&lt;=C6</f>
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="b">
+      <c r="M6" s="26" t="b">
         <f>$G6&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="26">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="b">
+      <c r="O6" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P6" s="1" t="b">
+      <c r="P6" s="26" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1679,52 +1989,52 @@
       <c r="E7" s="7">
         <v>11000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
         <v>136000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="27">
         <f t="shared" si="2"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="28">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
-      <c r="J7" s="1" t="b">
+      <c r="J7" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="b">
+      <c r="K7" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="b">
+      <c r="L7" s="26" t="b">
         <f>$S$3&lt;=C7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="b">
+      <c r="M7" s="26" t="b">
         <f>$G7&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O7" s="1" t="b">
+      <c r="O7" s="26" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="b">
+      <c r="P7" s="26" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1737,52 +2047,52 @@
       <c r="E8" s="7">
         <v>7000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="26">
         <f t="shared" si="1"/>
         <v>97000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="27">
         <f t="shared" si="2"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="28">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="J8" s="1" t="b">
+      <c r="J8" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="b">
+      <c r="K8" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="b">
+      <c r="L8" s="26" t="b">
         <f>$S$3&lt;=C8</f>
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="b">
+      <c r="M8" s="26" t="b">
         <f>$G8&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="26">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O8" s="1" t="b">
+      <c r="O8" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P8" s="1" t="b">
+      <c r="P8" s="26" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1795,52 +2105,52 @@
       <c r="E9" s="7">
         <v>15000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="26">
         <f t="shared" si="1"/>
         <v>165000</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="27">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="28">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="J9" s="1" t="b">
+      <c r="J9" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="b">
+      <c r="K9" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="1" t="b">
+      <c r="L9" s="26" t="b">
         <f>$S$3&lt;=C9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="1" t="b">
+      <c r="M9" s="26" t="b">
         <f>$G9&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="26">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="b">
+      <c r="O9" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P9" s="1" t="b">
+      <c r="P9" s="26" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1853,52 +2163,52 @@
       <c r="E10" s="7">
         <v>13000</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="26">
         <f t="shared" si="1"/>
         <v>143000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="27">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="28">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
-      <c r="J10" s="1" t="b">
+      <c r="J10" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="b">
+      <c r="K10" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="1" t="b">
+      <c r="L10" s="26" t="b">
         <f>$S$3&lt;=C10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="1" t="b">
+      <c r="M10" s="26" t="b">
         <f>$G10&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="26">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="b">
+      <c r="O10" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P10" s="1" t="b">
+      <c r="P10" s="26" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1911,127 +2221,305 @@
       <c r="E11" s="7">
         <v>14000</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="26">
         <f t="shared" si="1"/>
         <v>154000</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="27">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="28">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
-      <c r="J11" s="1" t="b">
+      <c r="J11" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K11" s="1" t="b">
+      <c r="K11" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="1" t="b">
+      <c r="L11" s="26" t="b">
         <f>$S$3&lt;=C11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="b">
+      <c r="M11" s="26" t="b">
         <f>$G11&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O11" s="1" t="b">
+      <c r="O11" s="26" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="b">
+      <c r="P11" s="26" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="20">
         <v>5</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="20">
         <v>115000</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="21">
         <v>9000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
         <v>124000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="27">
         <f t="shared" si="2"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="28">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
-      <c r="J12" s="1" t="b">
+      <c r="J12" s="26" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K12" s="1" t="b">
+      <c r="K12" s="26" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="1" t="b">
+      <c r="L12" s="26" t="b">
         <f>$S$3&lt;=C12</f>
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="b">
+      <c r="M12" s="26" t="b">
         <f>$G12&gt;=$S$4</f>
         <v>1</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="26">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O12" s="1" t="b">
+      <c r="O12" s="26" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P12" s="1" t="b">
+      <c r="P12" s="26" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C13" s="1">
+    <row r="13" spans="2:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="23">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12)/10</f>
         <v>5.3</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C14" s="1">
-        <f>AVERAGE($C3:$C12)</f>
+      <c r="D13" s="23">
+        <f t="shared" ref="D13:E13" si="9">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
+        <v>119000</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" si="9"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="24">
+        <f>AVERAGE(C3:C12)</f>
         <v>5.3</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:E14" si="9">AVERAGE($C3:$C12)</f>
+      <c r="D14" s="24">
+        <f t="shared" ref="D14:F14" si="10">AVERAGE(D3:D12)</f>
+        <v>119000</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="10"/>
+        <v>10400</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="10"/>
         <v>5.3</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3</v>
+    </row>
+    <row r="15" spans="2:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="23">
+        <f>COUNT(C3:C12)</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" ref="D15:E15" si="11">COUNT(D3:D12)</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="22">
+        <f>COUNTIF($C$3:$C$12, "&lt;=5")</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="22">
+        <f>COUNTIF($D$3:$D$12, "&gt;=90000")</f>
+        <v>9</v>
+      </c>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="39">
+        <f>COUNTIF($C$3:$C$12, "&lt;=" &amp; S3)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="39">
+        <f>COUNTIF($D$3:$D$12, "&gt;=" &amp; S4)</f>
+        <v>9</v>
+      </c>
+      <c r="E17" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EBE098-CD97-45AE-AE7E-86DF2D94E426}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="42" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="42" t="e">
+        <f>A4 + "text"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="42" t="e">
+        <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="42" t="e">
+        <f>SQRT(-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="42" t="e">
+        <f>SUM(A1:A10 C1:C10)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
